--- a/data/Student and Faculty Commons Survey_February 16, 2022_09.17.xlsx
+++ b/data/Student and Faculty Commons Survey_February 16, 2022_09.17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianmasse/Developer/Classes/CSC630/group-work/Commons-Data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63450D72-BEF1-9643-9022-AE36D0406181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{10D5364D-0CD4-7C4C-8554-758C7F6E2FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="222">
   <si>
     <t>StartDate</t>
   </si>
@@ -683,6 +683,9 @@
   </si>
   <si>
     <t>R_3fPFAFpc64aixNE</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1524,13 +1527,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX16"/>
+  <dimension ref="A1:BB16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="BB7" sqref="BB7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1681,8 +1689,11 @@
       <c r="AX1" t="s">
         <v>47</v>
       </c>
+      <c r="BB1" t="s">
+        <v>221</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1833,8 +1844,11 @@
       <c r="AX2" t="s">
         <v>94</v>
       </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -1985,8 +1999,11 @@
       <c r="AX3" t="s">
         <v>144</v>
       </c>
+      <c r="BB3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44604.385601851849</v>
       </c>
@@ -2026,8 +2043,11 @@
       <c r="Q4" t="s">
         <v>148</v>
       </c>
+      <c r="BB4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44604.390590277777</v>
       </c>
@@ -2067,8 +2087,11 @@
       <c r="R5" t="s">
         <v>152</v>
       </c>
+      <c r="BB5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44604.391817129632</v>
       </c>
@@ -2111,8 +2134,11 @@
       <c r="S6" t="s">
         <v>155</v>
       </c>
+      <c r="BB6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44604.429224537038</v>
       </c>
@@ -2240,7 +2266,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44605.398090277777</v>
       </c>
@@ -2281,7 +2307,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44606.317962962959</v>
       </c>
@@ -2409,7 +2435,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44606.326412037037</v>
       </c>
@@ -2447,7 +2473,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44606.439814814818</v>
       </c>
@@ -2575,7 +2601,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44606.440104166664</v>
       </c>
@@ -2688,7 +2714,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44606.443171296298</v>
       </c>
@@ -2816,7 +2842,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44608.351921296293</v>
       </c>
@@ -2854,7 +2880,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44608.35491898148</v>
       </c>
@@ -2985,7 +3011,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44608.378680555557</v>
       </c>

--- a/data/Student and Faculty Commons Survey_February 16, 2022_09.17.xlsx
+++ b/data/Student and Faculty Commons Survey_February 16, 2022_09.17.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianmasse/Developer/Classes/CSC630/group-work/Commons-Data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{10D5364D-0CD4-7C4C-8554-758C7F6E2FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC43F47-B8F2-1842-B815-34BE9D6D41B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student and Faculty Commons Sur" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="222">
   <si>
     <t>StartDate</t>
   </si>
@@ -667,31 +679,31 @@
     <t>R_1DFSf7Kx10nGtTK</t>
   </si>
   <si>
-    <t>Period 6</t>
-  </si>
-  <si>
-    <t>bagel</t>
-  </si>
-  <si>
-    <t>gabel</t>
-  </si>
-  <si>
-    <t>tawer</t>
-  </si>
-  <si>
     <t>198.140.202.129</t>
   </si>
   <si>
     <t>R_3fPFAFpc64aixNE</t>
   </si>
   <si>
-    <t>test</t>
+    <t>columnName</t>
+  </si>
+  <si>
+    <t>intersection</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>sexuality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1526,11 +1538,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="BB7" sqref="BB7"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="BD5" sqref="BD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1538,7 +1550,7 @@
     <col min="1" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1689,11 +1701,14 @@
       <c r="AX1" t="s">
         <v>47</v>
       </c>
-      <c r="BB1" t="s">
-        <v>221</v>
+      <c r="BC1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1844,11 +1859,14 @@
       <c r="AX2" t="s">
         <v>94</v>
       </c>
-      <c r="BB2">
-        <v>1</v>
+      <c r="BC2" t="s">
+        <v>219</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -1999,11 +2017,14 @@
       <c r="AX3" t="s">
         <v>144</v>
       </c>
-      <c r="BB3">
-        <v>2</v>
+      <c r="BC3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44604.385601851849</v>
       </c>
@@ -2043,11 +2064,14 @@
       <c r="Q4" t="s">
         <v>148</v>
       </c>
-      <c r="BB4">
-        <v>3</v>
+      <c r="BC4" t="s">
+        <v>221</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44604.390590277777</v>
       </c>
@@ -2087,11 +2111,8 @@
       <c r="R5" t="s">
         <v>152</v>
       </c>
-      <c r="BB5">
-        <v>4</v>
-      </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44604.391817129632</v>
       </c>
@@ -2134,11 +2155,8 @@
       <c r="S6" t="s">
         <v>155</v>
       </c>
-      <c r="BB6">
-        <v>5</v>
-      </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44604.429224537038</v>
       </c>
@@ -2266,7 +2284,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44605.398090277777</v>
       </c>
@@ -2307,7 +2325,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44606.317962962959</v>
       </c>
@@ -2435,7 +2453,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44606.326412037037</v>
       </c>
@@ -2473,7 +2491,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44606.439814814818</v>
       </c>
@@ -2601,7 +2619,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44606.440104166664</v>
       </c>
@@ -2714,7 +2732,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44606.443171296298</v>
       </c>
@@ -2842,7 +2860,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44608.351921296293</v>
       </c>
@@ -2880,7 +2898,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44608.35491898148</v>
       </c>
@@ -2935,83 +2953,8 @@
       <c r="X15" t="s">
         <v>193</v>
       </c>
-      <c r="Z15" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA15">
-        <v>2022</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>215</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>216</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>218</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>172</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>169</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>172</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>169</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>169</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>169</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>169</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>171</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>173</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>186</v>
-      </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44608.378680555557</v>
       </c>
@@ -3022,7 +2965,7 @@
         <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -3037,7 +2980,7 @@
         <v>44608.379930555559</v>
       </c>
       <c r="I16" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N16">
         <v>42.650802612304602</v>

--- a/data/Student and Faculty Commons Survey_February 16, 2022_09.17.xlsx
+++ b/data/Student and Faculty Commons Survey_February 16, 2022_09.17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianmasse/Developer/Classes/CSC630/group-work/Commons-Data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC43F47-B8F2-1842-B815-34BE9D6D41B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D0C7D7-DB22-9649-8E5E-D718563B6F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="228">
   <si>
     <t>StartDate</t>
   </si>
@@ -698,6 +698,24 @@
   </si>
   <si>
     <t>sexuality</t>
+  </si>
+  <si>
+    <t>Socio economic class</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Dietary restrictions</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Lunch period</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1539,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD16"/>
+  <dimension ref="A1:BG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="BD5" sqref="BD5"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="BC8" sqref="BC8:BD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1550,7 +1568,7 @@
     <col min="1" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1627,7 +1645,7 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="AA1" t="s">
         <v>25</v>
@@ -1708,7 +1726,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -2024,7 +2042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44604.385601851849</v>
       </c>
@@ -2071,7 +2089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44604.390590277777</v>
       </c>
@@ -2111,8 +2129,14 @@
       <c r="R5" t="s">
         <v>152</v>
       </c>
+      <c r="BC5" t="s">
+        <v>222</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44604.391817129632</v>
       </c>
@@ -2155,8 +2179,14 @@
       <c r="S6" t="s">
         <v>155</v>
       </c>
+      <c r="BC6" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44604.429224537038</v>
       </c>
@@ -2283,8 +2313,14 @@
       <c r="AX7" t="s">
         <v>174</v>
       </c>
+      <c r="BC7" t="s">
+        <v>224</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44605.398090277777</v>
       </c>
@@ -2324,8 +2360,14 @@
       <c r="Q8" t="s">
         <v>148</v>
       </c>
+      <c r="BC8" t="s">
+        <v>225</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44606.317962962959</v>
       </c>
@@ -2453,7 +2495,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44606.326412037037</v>
       </c>
@@ -2491,7 +2533,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44606.439814814818</v>
       </c>
@@ -2619,7 +2661,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44606.440104166664</v>
       </c>
@@ -2732,7 +2774,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44606.443171296298</v>
       </c>
@@ -2859,8 +2901,14 @@
       <c r="AX13" t="s">
         <v>200</v>
       </c>
+      <c r="BF13" t="s">
+        <v>226</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44608.351921296293</v>
       </c>
@@ -2898,7 +2946,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44608.35491898148</v>
       </c>
@@ -2954,7 +3002,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44608.378680555557</v>
       </c>
